--- a/TestData/LV_TMTI0055011_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFVALOBOpportunityEngagement.xlsx
+++ b/TestData/LV_TMTI0055011_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFVALOBOpportunityEngagement.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0541FCCA-CCAA-413F-990A-29354BA68A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7216FDA-D2BD-4882-A18B-02E8BCADE4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{4F41EB50-8C78-4F9F-A1D4-8B783E020697}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{4F41EB50-8C78-4F9F-A1D4-8B783E020697}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
     <sheet name="AppName" sheetId="7" r:id="rId2"/>
     <sheet name="ModuleName" sheetId="8" r:id="rId3"/>
-    <sheet name="Users" sheetId="2" r:id="rId4"/>
+    <sheet name="AddOpportunity" sheetId="1" r:id="rId4"/>
     <sheet name="AddContact" sheetId="3" r:id="rId5"/>
     <sheet name="OppDealTeamMembers" sheetId="4" r:id="rId6"/>
     <sheet name="EngDealTeamMembers" sheetId="5" r:id="rId7"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>Client</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Opportunities</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Indrajeet Singh</t>
   </si>
   <si>
@@ -367,13 +364,25 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
+  </si>
+  <si>
+    <t>Zev Litwin</t>
+  </si>
+  <si>
+    <t>Tom Seward</t>
+  </si>
+  <si>
+    <t>Lucy Gao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +398,123 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +527,88 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -427,9 +631,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -447,8 +795,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{F463C9BB-5B94-4245-9870-BDFF23A147A9}"/>
+    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{7ADF5274-04FD-49A5-BA0B-9AEC3E616281}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{7C847843-2918-4C29-A3FB-4AA7A6DB2E0C}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{F1F1E572-87F9-4890-9BCF-05D479BA29B3}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{527FD5EF-7906-476A-A9BC-5C2CEF5AC184}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{8DA3AB3E-1319-46C6-BBBC-C3F5B9A6D850}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{60DAC5CF-9FDB-4E6E-99C2-EDACFA42419D}"/>
+    <cellStyle name="40% - Accent2 2" xfId="7" xr:uid="{F5B242FC-0FE3-4961-8B4F-43E598DCD579}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{BB496188-EB38-46C1-9C08-81482B2F9D3A}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{827021F1-885D-4B7B-B128-0B10ED94797F}"/>
+    <cellStyle name="40% - Accent5 2" xfId="9" xr:uid="{C1CA83C4-0AD9-454D-A069-0A72A0E656AC}"/>
+    <cellStyle name="40% - Accent6 2" xfId="10" xr:uid="{2D0C4896-FAAF-4978-A390-ED581238DE9F}"/>
+    <cellStyle name="60% - Accent1 2" xfId="11" xr:uid="{1AD10FFE-3C74-44DB-ABE3-7A6C4FB70596}"/>
+    <cellStyle name="60% - Accent2 2" xfId="12" xr:uid="{4ED50767-F645-4D9C-A45B-C5E24AA8A9C5}"/>
+    <cellStyle name="60% - Accent3 2" xfId="13" xr:uid="{F1D80545-2D49-4523-B464-A4B61860793E}"/>
+    <cellStyle name="60% - Accent4 2" xfId="14" xr:uid="{62A80E53-671A-4788-9372-0812A697DF39}"/>
+    <cellStyle name="60% - Accent5 2" xfId="15" xr:uid="{E1F3E9A4-EF26-447C-B303-8FC65711EA5A}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{1EB0BC19-E144-45E0-A96E-94B0CE476DCE}"/>
+    <cellStyle name="Accent1 2" xfId="15" xr:uid="{D06B6F12-CC37-4219-80DF-EAF1464F8821}"/>
+    <cellStyle name="Accent2 2" xfId="16" xr:uid="{331517C4-F38D-446C-858B-010D3172E0B4}"/>
+    <cellStyle name="Accent3 2" xfId="17" xr:uid="{7234A323-63DC-4AFF-A285-0E070088D6A0}"/>
+    <cellStyle name="Accent4 2" xfId="18" xr:uid="{C8FF8799-9526-4507-8712-730D080A1420}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{5B219771-8CB7-4629-946D-54D64E136C5A}"/>
+    <cellStyle name="Accent6 2" xfId="20" xr:uid="{BDEBFCF9-E6CD-47DC-8EE6-04F5B20A586A}"/>
+    <cellStyle name="Bad 2" xfId="21" xr:uid="{B37D80A6-6E4D-4AA4-B3CB-FE771E12672A}"/>
+    <cellStyle name="Calculation 2" xfId="22" xr:uid="{E669731F-17B4-464F-8123-9F688C1CB63C}"/>
+    <cellStyle name="Check Cell 2" xfId="23" xr:uid="{DA78AB42-70C5-462B-83A3-0E1A9385AD97}"/>
+    <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{882E9A5E-F06C-49F0-B58A-48A4F45779F8}"/>
+    <cellStyle name="Good 2" xfId="25" xr:uid="{455C3AD0-AFE3-49F8-9274-CF39A0917366}"/>
+    <cellStyle name="Heading 1 2" xfId="26" xr:uid="{299F8EE1-97D1-49C1-8C7A-8504F49E4EEB}"/>
+    <cellStyle name="Heading 2 2" xfId="27" xr:uid="{C61E53E8-C70B-4184-A712-DD09859C1A07}"/>
+    <cellStyle name="Heading 3 2" xfId="28" xr:uid="{7FAC08E5-4350-4A12-A19A-5E9860DC8DC8}"/>
+    <cellStyle name="Heading 4 2" xfId="29" xr:uid="{49A0D6F4-96E7-4DC8-9CC7-91CE89A3C0FF}"/>
+    <cellStyle name="Input 2" xfId="30" xr:uid="{EF7A08BB-B64E-41CE-AD7B-37224B685870}"/>
+    <cellStyle name="Linked Cell 2" xfId="31" xr:uid="{C5047976-FCAC-43CC-B319-529F5F71E22E}"/>
+    <cellStyle name="Neutral 2" xfId="32" xr:uid="{CC28F837-9544-478A-828C-C48637248749}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A8A93626-CC94-4B76-96FA-7485D2EE3B70}"/>
+    <cellStyle name="Note 2" xfId="33" xr:uid="{DDB9DE0B-879B-45B7-8C8F-6EAEC4BE1A24}"/>
+    <cellStyle name="Output 2" xfId="34" xr:uid="{3D228D2A-7270-407B-944A-B7CBA6AC9755}"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{5DBD6051-11E9-4EB5-BB57-9BB472AAEC57}"/>
+    <cellStyle name="Total 2" xfId="36" xr:uid="{BE45EAC1-C181-4658-99D4-8EAB8DAB1F3F}"/>
+    <cellStyle name="Warning Text 2" xfId="37" xr:uid="{85AD7487-3D7E-4658-A7B5-93243CDBD110}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,202 +1149,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A698FC-E7B6-4C83-A074-4EAE7093E960}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AFF69-DCD2-4291-899D-46D247625F33}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
+      <c r="C2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1016,40 +1244,202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AFF69-DCD2-4291-899D-46D247625F33}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A698FC-E7B6-4C83-A074-4EAE7093E960}">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
+      <c r="O2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1126,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8CB76-FB8A-4028-8972-B88CE86EF1D8}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1580,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>70</v>
@@ -1258,7 +1648,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>82</v>
@@ -1282,6 +1672,16 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1695,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1710,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
